--- a/trained_models_old_clean/MLP/spectf/results_table.xlsx
+++ b/trained_models_old_clean/MLP/spectf/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25978630022382754, 'beta_2': 0.1458274170667079, 'epsilon': 0.36800399160826824, 'learning_rate': 'invscaling', 'momentum': 0.28783376214007295, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.18621159518672326}</t>
+          <t>{'beta_1': 0.3148363519420326, 'beta_2': 0.07010339429703957, 'epsilon': 0.5002579941690389, 'learning_rate': 'invscaling', 'momentum': 0.12874413737493262, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.13603825089447075}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8770053475935828</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.09993201724011627, 'beta_2': 0.9592965275905317, 'epsilon': 0.0723620130183315, 'learning_rate': 'invscaling', 'momentum': 0.5468849016694222, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.5922304187618368}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7005347593582888</v>
+        <v>0.5401069518716578</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
+          <t>{'beta_1': 0.6908165997237037, 'beta_2': 0.10879483510248487, 'epsilon': 0.2643849484047975, 'learning_rate': 'constant', 'momentum': 0.5629474419315366, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.192846100016822}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.08021390374331551</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.052354629733086175, 'beta_2': 0.9092212557463333, 'epsilon': 0.5338975961371942, 'learning_rate': 'constant', 'momentum': 0.6800837840490205, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25748830652559607}</t>
+          <t>{'beta_1': 0.05723274851135143, 'beta_2': 0.5561627225329467, 'epsilon': 0.2347785484734336, 'learning_rate': 'adaptive', 'momentum': 0.7816131001833894, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.5008116982476696}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5989304812834224</v>
+        <v>0.08021390374331551</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5904743154531562, 'beta_2': 0.9207973478039624, 'epsilon': 0.8044585917235958, 'learning_rate': 'constant', 'momentum': 0.7119905766783191, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49236140669088413}</t>
+          <t>{'beta_1': 0.3062928022489885, 'beta_2': 0.829005498344716, 'epsilon': 0.9407406510728761, 'learning_rate': 'adaptive', 'momentum': 0.3736682676086652, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.06758277360051868}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7005347593582888</v>
+        <v>0.0106951871657754</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
+          <t>{'beta_1': 0.9336258141554882, 'beta_2': 0.9206260002643532, 'epsilon': 0.007802405190337483, 'learning_rate': 'adaptive', 'momentum': 0.25663261663902925, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.31803028916055465}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7112299465240641</v>
+        <v>0.9197860962566845</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.187154715269015, 'beta_2': 0.019221200853404896, 'epsilon': 0.7697683033194272, 'learning_rate': 'invscaling', 'momentum': 0.19967283393019697, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5905726936267424}</t>
+          <t>{'beta_1': 0.9806580407236648, 'beta_2': 0.2444067628479149, 'epsilon': 0.3739488734405835, 'learning_rate': 'invscaling', 'momentum': 0.4090540953730616, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.6387617573665293}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6203208556149733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13533859015822777, 'beta_2': 0.29798404363007475, 'epsilon': 0.5693949457905636, 'learning_rate': 'invscaling', 'momentum': 0.5518162591332588, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9689617652602737}</t>
+          <t>{'beta_1': 0.9313169537902833, 'beta_2': 0.7878722998070243, 'epsilon': 0.9867706309257332, 'learning_rate': 'invscaling', 'momentum': 0.1039908379712331, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.7510322995349188}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.6844919786096256</v>
+        <v>0.6898395721925134</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8868131348915925, 'beta_2': 0.6379705684637716, 'epsilon': 0.42956678369024237, 'learning_rate': 'adaptive', 'momentum': 0.7701281241915822, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7861884994650608}</t>
+          <t>{'beta_1': 0.508263796113077, 'beta_2': 0.5186127832332325, 'epsilon': 0.6475177064838193, 'learning_rate': 'invscaling', 'momentum': 0.5358829812761117, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.8204621608393736}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.7433155080213903</v>
+        <v>0.0481283422459893</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.026466768750532547, 'beta_2': 0.937732718856959, 'epsilon': 0.21154464145418167, 'learning_rate': 'constant', 'momentum': 0.7759584418813597, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1580597336011924}</t>
+          <t>{'beta_1': 0.7523331746178556, 'beta_2': 0.4042386770098626, 'epsilon': 0.0868683906912156, 'learning_rate': 'invscaling', 'momentum': 0.8754513240932963, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.49096638554047445}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.08021390374331551</v>
+        <v>0.8983957219251337</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
+          <t>{'beta_1': 0.9401443214576032, 'beta_2': 0.6970437375594302, 'epsilon': 0.6567366068211221, 'learning_rate': 'constant', 'momentum': 0.250180007174864, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.6481414711893314}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7540106951871658</v>
+        <v>0.9197860962566845</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.187154715269015, 'beta_2': 0.019221200853404896, 'epsilon': 0.7697683033194272, 'learning_rate': 'invscaling', 'momentum': 0.19967283393019697, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5905726936267424}</t>
+          <t>{'beta_1': 0.9483695035932658, 'beta_2': 0.9404363270017921, 'epsilon': 0.7984033847650392, 'learning_rate': 'invscaling', 'momentum': 0.708548150020003, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8445500794719424}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6951871657754011</v>
+        <v>0.6524064171122995</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
+          <t>{'beta_1': 0.3148363519420326, 'beta_2': 0.07010339429703957, 'epsilon': 0.5002579941690389, 'learning_rate': 'invscaling', 'momentum': 0.12874413737493262, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.13603825089447075}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6524064171122995</v>
+        <v>0.1925133689839572</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.7053549462068467, 'beta_2': 0.3185984091076618, 'epsilon': 0.9736140674888759, 'learning_rate': 'constant', 'momentum': 0.29084090665674256, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.4800608878207556}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9197860962566845</v>
+        <v>0.4331550802139038</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3639228019573255, 'beta_2': 0.48280639975977313, 'epsilon': 0.9129734837504085, 'learning_rate': 'constant', 'momentum': 0.22804609816491894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3182942498743513}</t>
+          <t>{'beta_1': 0.15582195010642208, 'beta_2': 0.425576385281891, 'epsilon': 0.8918144570847326, 'learning_rate': 'constant', 'momentum': 0.033771567181470674, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.7658324795628453}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7433155080213903</v>
+        <v>0.4010695187165775</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5692643787206225, 'beta_2': 0.1512342651827317, 'epsilon': 0.6267137312543768, 'learning_rate': 'invscaling', 'momentum': 0.9454189501211565, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9085383186873831}</t>
+          <t>{'beta_1': 0.8959514256598484, 'beta_2': 0.7638475531704679, 'epsilon': 0.863748991480709, 'learning_rate': 'invscaling', 'momentum': 0.6050368756235982, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.620421104640871}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.08021390374331551</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.48992948852783885, 'beta_2': 0.18516323839240345, 'epsilon': 0.9948194776666753, 'learning_rate': 'adaptive', 'momentum': 0.4714573193542654, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6444791031250725}</t>
+          <t>{'beta_1': 0.2216022064794861, 'beta_2': 0.49345131040653906, 'epsilon': 0.9286891207073077, 'learning_rate': 'adaptive', 'momentum': 0.033093704268924995, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.8199957086180631}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.1390374331550802</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7210508272903668, 'beta_2': 0.1642126340254742, 'epsilon': 0.0009120066213287138, 'learning_rate': 'constant', 'momentum': 0.5453139942248814, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6675590128316528}</t>
+          <t>{'beta_1': 0.8415594141251636, 'beta_2': 0.36286073795357404, 'epsilon': 0.2465256308604366, 'learning_rate': 'invscaling', 'momentum': 0.48627208632931485, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.7039655722478795}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.1336898395721925</v>
+        <v>0.3422459893048128</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
+          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.6844919786096256</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
+          <t>{'beta_1': 0.3207219470531737, 'beta_2': 0.02992037457984461, 'epsilon': 0.7365169883538808, 'learning_rate': 'invscaling', 'momentum': 0.5308601305358718, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.02963481813030122}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7005347593582888</v>
+        <v>0.1978609625668449</v>
       </c>
     </row>
   </sheetData>
